--- a/www/IndicatorsPerCountry/Laos_GDPperCapita_TerritorialRef_1953_2012_CCode_418.xlsx
+++ b/www/IndicatorsPerCountry/Laos_GDPperCapita_TerritorialRef_1953_2012_CCode_418.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Laos_GDPperCapita_TerritorialRef_1953_2012_CCode_418.xlsx
+++ b/www/IndicatorsPerCountry/Laos_GDPperCapita_TerritorialRef_1953_2012_CCode_418.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>635</t>
-  </si>
-  <si>
-    <t>642</t>
-  </si>
-  <si>
-    <t>649</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>661</t>
-  </si>
-  <si>
-    <t>667</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>719</t>
-  </si>
-  <si>
-    <t>726</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>755</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>821</t>
-  </si>
-  <si>
-    <t>836</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>876</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>899</t>
-  </si>
-  <si>
-    <t>904</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>918</t>
-  </si>
-  <si>
-    <t>921</t>
-  </si>
-  <si>
-    <t>923</t>
-  </si>
-  <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>927</t>
-  </si>
-  <si>
-    <t>929.116398904</t>
-  </si>
-  <si>
-    <t>930.812312123</t>
-  </si>
-  <si>
-    <t>953.036729744</t>
-  </si>
-  <si>
-    <t>1020.25269262</t>
-  </si>
-  <si>
-    <t>1053.51870792</t>
-  </si>
-  <si>
-    <t>1079.21477736</t>
-  </si>
-  <si>
-    <t>1077.23893703</t>
-  </si>
-  <si>
-    <t>1105.39888111</t>
-  </si>
-  <si>
-    <t>1110.36568247</t>
-  </si>
-  <si>
-    <t>1166.92642918</t>
-  </si>
-  <si>
-    <t>1203.22321946</t>
-  </si>
-  <si>
-    <t>1240.53607765</t>
-  </si>
-  <si>
-    <t>1280.98970431</t>
-  </si>
-  <si>
-    <t>1322.29004424</t>
-  </si>
-  <si>
-    <t>1372.91354138</t>
-  </si>
-  <si>
-    <t>1435.22561254</t>
-  </si>
-  <si>
-    <t>1518.72950551</t>
-  </si>
-  <si>
-    <t>1594.1433898</t>
-  </si>
-  <si>
-    <t>1669.1790712</t>
+    <t>697</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>751</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>1283</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1428</t>
+  </si>
+  <si>
+    <t>1481</t>
+  </si>
+  <si>
+    <t>1512.47987022857</t>
+  </si>
+  <si>
+    <t>1563.90573665207</t>
+  </si>
+  <si>
+    <t>1622.55451608283</t>
+  </si>
+  <si>
+    <t>1718.11585629849</t>
+  </si>
+  <si>
+    <t>1801.54401555344</t>
+  </si>
+  <si>
+    <t>1899.89586730929</t>
+  </si>
+  <si>
+    <t>2002.2359892027</t>
+  </si>
+  <si>
+    <t>2050.88381062929</t>
+  </si>
+  <si>
+    <t>2167.77962339752</t>
+  </si>
+  <si>
+    <t>2262.23564902541</t>
+  </si>
+  <si>
+    <t>2365.10333635458</t>
+  </si>
+  <si>
+    <t>2486.98919138709</t>
+  </si>
+  <si>
+    <t>2625.34821863314</t>
+  </si>
+  <si>
+    <t>2784.68009144169</t>
+  </si>
+  <si>
+    <t>2948.69961823626</t>
+  </si>
+  <si>
+    <t>2896.13547876231</t>
+  </si>
+  <si>
+    <t>3389.36406691748</t>
+  </si>
+  <si>
+    <t>3614.47682688708</t>
+  </si>
+  <si>
+    <t>3843.82974993866</t>
+  </si>
+  <si>
+    <t>4114.0102760815</t>
+  </si>
+  <si>
+    <t>4401</t>
+  </si>
+  <si>
+    <t>4670</t>
+  </si>
+  <si>
+    <t>4961</t>
+  </si>
+  <si>
+    <t>5251</t>
+  </si>
+  <si>
+    <t>5559</t>
+  </si>
+  <si>
+    <t>5859</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1341,142 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
